--- a/biology/Zoologie/Erinaceidae/Erinaceidae.xlsx
+++ b/biology/Zoologie/Erinaceidae/Erinaceidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Érinacéidés
 Les érinacéidés (Erinaceidae) forment une famille de mammifères insectivores, qui inclut la plupart des hérissons, mais aussi les gymnures, animaux d'Asie inermes (sans épines).
@@ -512,7 +524,9 @@
           <t>Liste des sous-familles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les érinaceidés actuelles se subdivisent en deux sous-familles.
 Selon ITIS :
@@ -545,7 +559,9 @@
           <t>Régime alimentaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les hérissons sont quasiment omnivores. Ils se nourrissent d'insectes, d'escargots, de grenouilles et de crapauds, de serpents, d'œufs d'oiseaux, de carcasses d'animaux, de champignons, d'herbe, de racines, de baies, de melons et de courges. 
 Il arrive parfois que des hérissons soient surpris en train de creuser à la recherche de vers de terre après un orage. Bien que les hérissons européens soient en grande partie insectivores, ce n'est pas toujours vrai pour les autres espèces. Par exemple, les baies constituent l'essentiel du régime du hérisson afghan au printemps.
@@ -579,7 +595,9 @@
           <t>Histoire du taxon</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Bien que l'on n'ait que peu d'indices concernant l'âge des espèces de hérissons actuelles, des fossiles mésozoïques d'insectivores à épines de morphologie de type hérisson ont été découverts.
 </t>
@@ -611,6 +629,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,8 +658,13 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Liste des genres
-Selon ITIS &amp; MSW:
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon ITIS &amp; MSW:
 sous-famille Erinaceinae G. Fischer, 1814 -- les hérissons vrais
 genre Atelerix Pomel, 1848
 genre Erinaceus Linnaeus, 1758
@@ -659,8 +684,43 @@
 			Hemiechinus auritus
 			Hylomys suillus
 			Paraechinus aethiopicus
-Liste des espèces
-Selon MSW :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Erinaceidae</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erinaceidae</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Genres et espèces</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Selon MSW :
 sous-famille Erinaceinae
 Atelerix
 Atelerix albiventris
